--- a/Financial Analysis/Models.xlsx
+++ b/Financial Analysis/Models.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Desktop\Financial Analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\antos\Documents\GitHub\FinanceModels\Financial Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18137182-3485-4FEE-99C2-22BE29C78D12}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C9F60C-EFE8-4EBC-9BE9-559F073A337A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{40711DBD-7A53-4994-9FF1-9E754821B18D}"/>
   </bookViews>
@@ -373,9 +373,6 @@
     <t>29 days</t>
   </si>
   <si>
-    <t>Do not short good companies!</t>
-  </si>
-  <si>
     <t>"</t>
   </si>
   <si>
@@ -500,13 +497,16 @@
   </si>
   <si>
     <t>EV/R</t>
+  </si>
+  <si>
+    <t>Do not short good companies! (maybe only at &gt;-70% and a short period of time)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="8">
+  <numFmts count="9">
     <numFmt numFmtId="6" formatCode="&quot;£&quot;#,##0;[Red]\-&quot;£&quot;#,##0"/>
     <numFmt numFmtId="164" formatCode="&quot;£&quot;#,##0"/>
     <numFmt numFmtId="165" formatCode="[$$-409]#,##0.00"/>
@@ -515,6 +515,7 @@
     <numFmt numFmtId="168" formatCode="#,##0.00\ [$€-1]"/>
     <numFmt numFmtId="169" formatCode="[$£-809]#,##0.00"/>
     <numFmt numFmtId="170" formatCode="0\x"/>
+    <numFmt numFmtId="171" formatCode="0.0\x"/>
   </numFmts>
   <fonts count="16" x14ac:knownFonts="1">
     <font>
@@ -903,7 +904,6 @@
     <xf numFmtId="0" fontId="14" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="14" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -923,6 +923,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="170" fontId="13" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="13" fillId="9" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -959,10 +962,13 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="M3">
-            <v>22.232510933845937</v>
-          </cell>
-          <cell r="Y3">
-            <v>-0.10677868464902869</v>
+            <v>22.679034854684605</v>
+          </cell>
+          <cell r="T3">
+            <v>3.4178769674376195</v>
+          </cell>
+          <cell r="Z3">
+            <v>-0.12975489028566323</v>
           </cell>
         </row>
         <row r="4">
@@ -1097,32 +1103,32 @@
         </row>
         <row r="30">
           <cell r="B30" t="str">
-            <v>EPAM</v>
+            <v>Reddit</v>
           </cell>
         </row>
         <row r="31">
           <cell r="B31" t="str">
-            <v>Reddit</v>
+            <v>Snap Inc</v>
           </cell>
         </row>
         <row r="32">
           <cell r="B32" t="str">
-            <v>Snap Inc</v>
+            <v>Zoom Video</v>
           </cell>
         </row>
         <row r="33">
           <cell r="B33" t="str">
-            <v>Zoom Video</v>
+            <v>Duolingo</v>
           </cell>
         </row>
         <row r="34">
           <cell r="B34" t="str">
-            <v>Duolingo</v>
+            <v>SoFi</v>
           </cell>
         </row>
         <row r="35">
           <cell r="B35" t="str">
-            <v>SoFi</v>
+            <v>Logitech</v>
           </cell>
         </row>
         <row r="36">
@@ -1132,12 +1138,12 @@
         </row>
         <row r="37">
           <cell r="B37" t="str">
-            <v>Logitech</v>
+            <v>Shift4</v>
           </cell>
         </row>
         <row r="38">
           <cell r="B38" t="str">
-            <v>Shift4</v>
+            <v>EPAM</v>
           </cell>
         </row>
         <row r="39">
@@ -1325,23 +1331,28 @@
             <v>Alibaba</v>
           </cell>
         </row>
-        <row r="77">
-          <cell r="B77" t="str">
-            <v>Taiwan Semiconductor</v>
+        <row r="76">
+          <cell r="B76" t="str">
+            <v>TakeTwo</v>
           </cell>
         </row>
         <row r="78">
           <cell r="B78" t="str">
-            <v>ASML</v>
+            <v>Taiwan Semiconductor</v>
           </cell>
         </row>
         <row r="79">
           <cell r="B79" t="str">
-            <v>Broadcom</v>
+            <v>ASML</v>
           </cell>
         </row>
         <row r="80">
           <cell r="B80" t="str">
+            <v>Broadcom</v>
+          </cell>
+        </row>
+        <row r="81">
+          <cell r="B81" t="str">
             <v>Qualcomm</v>
           </cell>
         </row>
@@ -1451,10 +1462,13 @@
       <sheetData sheetId="0">
         <row r="3">
           <cell r="O3">
-            <v>18.383490024183327</v>
-          </cell>
-          <cell r="Z3">
-            <v>-0.37453736139755095</v>
+            <v>18.404425571240498</v>
+          </cell>
+          <cell r="U3">
+            <v>0.99521007588381571</v>
+          </cell>
+          <cell r="AA3">
+            <v>-0.32448460534404661</v>
           </cell>
         </row>
         <row r="4">
@@ -1603,6 +1617,9 @@
           <cell r="O3">
             <v>26.251166047313312</v>
           </cell>
+          <cell r="U3">
+            <v>0.98589961550171934</v>
+          </cell>
           <cell r="AA3">
             <v>-0.22397093414271882</v>
           </cell>
@@ -1803,7 +1820,10 @@
           <cell r="R3">
             <v>25.311465398668286</v>
           </cell>
-          <cell r="AD3">
+          <cell r="Y3">
+            <v>2.2678747573429807</v>
+          </cell>
+          <cell r="AE3">
             <v>-0.23973616282793675</v>
           </cell>
         </row>
@@ -2384,20 +2404,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="61" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="61" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="62" t="s">
+      <c r="D2" s="61" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="62" t="s">
+      <c r="E2" s="61" t="s">
+        <v>130</v>
+      </c>
+      <c r="F2" s="61" t="s">
         <v>131</v>
-      </c>
-      <c r="F2" s="62" t="s">
-        <v>132</v>
       </c>
       <c r="G2" s="59" t="s">
         <v>16</v>
@@ -2407,131 +2427,146 @@
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" s="63" t="s">
+      <c r="B3" s="62" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="64">
+      <c r="C3" s="63">
         <f>COUNTA([1]Models!$B$4:$B$1048576)</f>
-        <v>76</v>
-      </c>
-      <c r="D3" s="65">
-        <f>[1]Models!$Y$3</f>
-        <v>-0.10677868464902869</v>
-      </c>
-      <c r="E3" s="67">
+        <v>77</v>
+      </c>
+      <c r="D3" s="64">
+        <f>[1]Models!$Z$3</f>
+        <v>-0.12975489028566323</v>
+      </c>
+      <c r="E3" s="66">
         <f>[1]Models!$M$3</f>
-        <v>22.232510933845937</v>
-      </c>
-      <c r="F3" s="66"/>
-      <c r="G3" s="61">
+        <v>22.679034854684605</v>
+      </c>
+      <c r="F3" s="67">
+        <f>[1]Models!$T$3</f>
+        <v>3.4178769674376195</v>
+      </c>
+      <c r="G3" s="60">
         <v>45771</v>
       </c>
-      <c r="H3" s="61">
+      <c r="H3" s="60">
         <f ca="1">TODAY()</f>
-        <v>45773</v>
-      </c>
-      <c r="K3" s="60" t="s">
+        <v>45783</v>
+      </c>
+      <c r="K3" s="62" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="62" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="64">
+      <c r="C4" s="63">
         <f>COUNTA([2]Main!$B$4:$B$1048576)</f>
         <v>25</v>
       </c>
-      <c r="D4" s="65">
-        <f>[2]Main!$Z$3</f>
-        <v>-0.37453736139755095</v>
-      </c>
-      <c r="E4" s="67">
+      <c r="D4" s="64">
+        <f>[2]Main!$AA$3</f>
+        <v>-0.32448460534404661</v>
+      </c>
+      <c r="E4" s="66">
         <f>[2]Main!$O$3</f>
-        <v>18.383490024183327</v>
-      </c>
-      <c r="F4" s="66"/>
+        <v>18.404425571240498</v>
+      </c>
+      <c r="F4" s="67">
+        <f>[2]Main!$U$3</f>
+        <v>0.99521007588381571</v>
+      </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" s="63" t="s">
+      <c r="B5" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="64">
+      <c r="C5" s="63">
         <f>COUNTA([3]Main!$B$4:$B$1048576)</f>
         <v>35</v>
       </c>
-      <c r="D5" s="65">
+      <c r="D5" s="64">
         <f>[3]Main!$AA$3</f>
         <v>-0.22397093414271882</v>
       </c>
-      <c r="E5" s="67">
+      <c r="E5" s="66">
         <f>[3]Main!$O$3</f>
         <v>26.251166047313312</v>
       </c>
-      <c r="F5" s="66"/>
+      <c r="F5" s="67">
+        <f>[3]Main!$U$3</f>
+        <v>0.98589961550171934</v>
+      </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B6" s="63" t="s">
+      <c r="B6" s="62" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="64">
+      <c r="C6" s="63">
         <f>COUNTA([4]Main!$B$4:$B$1048576)</f>
         <v>18</v>
       </c>
-      <c r="D6" s="65">
-        <f>[4]Main!$AD$3</f>
+      <c r="D6" s="64">
+        <f>[4]Main!$AE$3</f>
         <v>-0.23973616282793675</v>
       </c>
-      <c r="E6" s="67">
+      <c r="E6" s="66">
         <f>[4]Main!$R$3</f>
         <v>25.311465398668286</v>
       </c>
-      <c r="F6" s="66"/>
+      <c r="F6" s="67">
+        <f>[4]Main!$Y$3</f>
+        <v>2.2678747573429807</v>
+      </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" s="63" t="s">
+      <c r="B7" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="64">
+      <c r="C7" s="63">
         <f>COUNTA([5]Models!$B$4:$B$1048576)</f>
         <v>4</v>
       </c>
-      <c r="D7" s="65">
+      <c r="D7" s="64">
         <f>[5]Models!$Z$3</f>
         <v>-0.5430347296183955</v>
       </c>
-      <c r="E7" s="67"/>
-      <c r="F7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="65"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B8" s="63" t="s">
+      <c r="B8" s="62" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="64">
+      <c r="C8" s="63">
         <f>COUNTA([6]Main!$B$4:$B$1048576)</f>
         <v>6</v>
       </c>
-      <c r="D8" s="65">
+      <c r="D8" s="64">
         <f>[6]Main!$Z$3</f>
         <v>-0.53594872196534138</v>
       </c>
-      <c r="E8" s="67"/>
-      <c r="F8" s="66"/>
+      <c r="E8" s="66"/>
+      <c r="F8" s="65"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="C9" s="64">
+      <c r="C9" s="63">
         <f>SUM(C3:C8)</f>
-        <v>164</v>
-      </c>
-      <c r="D9" s="65">
+        <v>165</v>
+      </c>
+      <c r="D9" s="64">
         <f>AVERAGE(D3:D8)</f>
-        <v>-0.33733443243349531</v>
-      </c>
-      <c r="E9" s="67">
+        <v>-0.33282167403068369</v>
+      </c>
+      <c r="E9" s="66">
         <f>AVERAGE(E3:E8)</f>
-        <v>23.044658101002714</v>
-      </c>
-      <c r="F9" s="66"/>
+        <v>23.161522967976676</v>
+      </c>
+      <c r="F9" s="67">
+        <f>AVERAGE(F3:F8)</f>
+        <v>1.9167153540415338</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -2607,7 +2642,7 @@
   <dimension ref="B2:AP93"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2620,7 +2655,7 @@
   <sheetData>
     <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D2" t="s">
         <v>17</v>
@@ -2653,10 +2688,10 @@
         <v>23</v>
       </c>
       <c r="O2" s="8" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="P2" s="8" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="Q2" s="8" t="s">
         <v>22</v>
@@ -2665,7 +2700,7 @@
         <v>21</v>
       </c>
       <c r="S2" s="8" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="T2" s="8" t="s">
         <v>20</v>
@@ -2674,13 +2709,13 @@
     <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="D3" s="2">
         <f ca="1">TODAY()</f>
-        <v>45773</v>
+        <v>45783</v>
       </c>
       <c r="F3" s="33" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H3">
         <v>4</v>
@@ -2713,7 +2748,7 @@
       </c>
       <c r="Q3" s="29">
         <f t="shared" ref="Q3:Q10" ca="1" si="2">$D$3-I3</f>
-        <v>1642</v>
+        <v>1652</v>
       </c>
       <c r="R3" s="7">
         <f t="shared" ref="R3:R10" si="3">N3/M3-1</f>
@@ -2721,18 +2756,18 @@
       </c>
       <c r="S3" s="51">
         <f t="shared" ref="S3:S10" ca="1" si="4">R3*(12-(($D$3-I3)/30.44))</f>
-        <v>-254.22005357568639</v>
+        <v>-256.21125018555927</v>
       </c>
       <c r="T3" s="56" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F4" s="33" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H4">
         <v>1</v>
@@ -2765,7 +2800,7 @@
       </c>
       <c r="Q4" s="29">
         <f t="shared" ca="1" si="2"/>
-        <v>1601</v>
+        <v>1611</v>
       </c>
       <c r="R4" s="7">
         <f t="shared" si="3"/>
@@ -2773,18 +2808,18 @@
       </c>
       <c r="S4" s="51">
         <f t="shared" ca="1" si="4"/>
-        <v>-5.9419993224588072</v>
+        <v>-5.9900846437488964</v>
       </c>
       <c r="T4" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="F5" s="33" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G5" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H5">
         <v>5</v>
@@ -2816,7 +2851,7 @@
       </c>
       <c r="Q5" s="29">
         <f t="shared" ca="1" si="2"/>
-        <v>1601</v>
+        <v>1611</v>
       </c>
       <c r="R5" s="7">
         <f t="shared" si="3"/>
@@ -2824,19 +2859,19 @@
       </c>
       <c r="S5" s="51">
         <f t="shared" ca="1" si="4"/>
-        <v>-2.6597827060600721</v>
+        <v>-2.6813068596390388</v>
       </c>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="55" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C6" s="54"/>
       <c r="F6" s="33" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="G6" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H6">
         <v>110</v>
@@ -2868,7 +2903,7 @@
       </c>
       <c r="Q6" s="29">
         <f t="shared" ca="1" si="2"/>
-        <v>1566</v>
+        <v>1576</v>
       </c>
       <c r="R6" s="7">
         <f t="shared" si="3"/>
@@ -2876,21 +2911,21 @@
       </c>
       <c r="S6" s="51">
         <f t="shared" ca="1" si="4"/>
-        <v>-42.676494463455207</v>
+        <v>-43.031918662797729</v>
       </c>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="18" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C7" s="53" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F7" s="33" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G7" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H7">
         <v>0.3</v>
@@ -2922,7 +2957,7 @@
       </c>
       <c r="Q7" s="29">
         <f t="shared" ca="1" si="2"/>
-        <v>1566</v>
+        <v>1576</v>
       </c>
       <c r="R7" s="7">
         <f t="shared" si="3"/>
@@ -2930,21 +2965,21 @@
       </c>
       <c r="S7" s="51">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.0030225466200866</v>
+        <v>-6.0530177373941232</v>
       </c>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="18" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C8" s="53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F8" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G8" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H8">
         <v>0.1</v>
@@ -2976,7 +3011,7 @@
       </c>
       <c r="Q8" s="29">
         <f t="shared" ca="1" si="2"/>
-        <v>1566</v>
+        <v>1576</v>
       </c>
       <c r="R8" s="7">
         <f t="shared" si="3"/>
@@ -2984,21 +3019,21 @@
       </c>
       <c r="S8" s="51">
         <f t="shared" ca="1" si="4"/>
-        <v>-29.043126022131442</v>
+        <v>-29.285006943762895</v>
       </c>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="18" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C9" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="F9" s="33" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="G9" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -3030,7 +3065,7 @@
       </c>
       <c r="Q9" s="29">
         <f t="shared" ca="1" si="2"/>
-        <v>1562</v>
+        <v>1572</v>
       </c>
       <c r="R9" s="7">
         <f t="shared" si="3"/>
@@ -3038,21 +3073,21 @@
       </c>
       <c r="S9" s="51">
         <f t="shared" ca="1" si="4"/>
-        <v>-12.407419634673715</v>
+        <v>-12.511098186337207</v>
       </c>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B10" s="18" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C10" s="50" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="F10" s="33" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G10" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H10">
         <v>550</v>
@@ -3085,7 +3120,7 @@
       </c>
       <c r="Q10" s="29">
         <f t="shared" ca="1" si="2"/>
-        <v>1507</v>
+        <v>1517</v>
       </c>
       <c r="R10" s="7">
         <f t="shared" si="3"/>
@@ -3093,28 +3128,28 @@
       </c>
       <c r="S10" s="51">
         <f t="shared" ca="1" si="4"/>
-        <v>-6.3760544373801089</v>
+        <v>-6.4319004805201097</v>
       </c>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B11" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C11" s="50" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G11" s="18"/>
       <c r="S11" s="3"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B12" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C12" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="G12" s="18"/>
       <c r="M12" s="32">
@@ -3138,10 +3173,10 @@
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B13" s="48" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C13" s="47" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" s="46" t="s">
         <v>65</v>
@@ -3177,7 +3212,7 @@
       </c>
       <c r="S13" s="42">
         <f ca="1">R13*(12-(($D$3-I13)/30.44))</f>
-        <v>-176.58077766097242</v>
+        <v>-177.96385913272013</v>
       </c>
       <c r="T13" s="26"/>
     </row>
@@ -3188,12 +3223,12 @@
     </row>
     <row r="17" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B17" s="40" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="18" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B18" s="39" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F18" s="1" t="s">
         <v>59</v>
@@ -3240,13 +3275,13 @@
     </row>
     <row r="19" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B19" s="38" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="F19" s="28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G19" s="27" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H19" s="26">
         <v>0.1</v>
@@ -3273,7 +3308,7 @@
         <v>11.139999999999999</v>
       </c>
       <c r="P19" s="23" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="Q19" s="22">
         <f t="shared" ref="Q19:Q30" si="6">(O19+N19)/N19-1</f>
@@ -3281,7 +3316,7 @@
       </c>
       <c r="R19" s="7"/>
       <c r="S19" s="7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="AO19" s="30" t="str">
         <f t="shared" ref="AO19:AO30" si="7">LEFT(P19,2)</f>
@@ -3293,7 +3328,7 @@
     </row>
     <row r="20" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B20" s="34" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="F20" s="33" t="s">
         <v>70</v>
@@ -3329,7 +3364,7 @@
         <v>12.408010794140331</v>
       </c>
       <c r="P20" s="16" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="Q20" s="7">
         <f t="shared" si="6"/>
@@ -3340,7 +3375,7 @@
         <v>12.408010794140331</v>
       </c>
       <c r="S20" s="17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="T20" s="16"/>
       <c r="AO20" s="30" t="str">
@@ -3353,7 +3388,7 @@
     </row>
     <row r="21" spans="2:42" x14ac:dyDescent="0.3">
       <c r="F21" s="33" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G21" s="18" t="s">
         <v>42</v>
@@ -3385,7 +3420,7 @@
         <v>11.92</v>
       </c>
       <c r="P21" s="16" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Q21" s="7">
         <f t="shared" si="6"/>
@@ -3396,7 +3431,7 @@
         <v>24.328010794140333</v>
       </c>
       <c r="S21" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO21" s="30" t="str">
         <f t="shared" si="7"/>
@@ -3408,7 +3443,7 @@
     </row>
     <row r="22" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F22" s="33" t="s">
         <v>74</v>
@@ -3454,7 +3489,7 @@
         <v>2.4780107941403315</v>
       </c>
       <c r="S22" s="17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="AO22" s="30" t="str">
         <f t="shared" si="7"/>
@@ -3466,7 +3501,7 @@
     </row>
     <row r="23" spans="2:42" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="F23" s="33" t="s">
         <v>74</v>
@@ -4032,7 +4067,7 @@
       </c>
       <c r="Q36" s="23">
         <f ca="1">TODAY()-I36</f>
-        <v>214</v>
+        <v>224</v>
       </c>
       <c r="R36" s="22">
         <f>P36/N36-1</f>
@@ -4082,7 +4117,7 @@
       </c>
       <c r="Q37" s="21">
         <f ca="1">TODAY()-I37</f>
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="R37" s="7">
         <f>P37/N37-1</f>
@@ -4132,7 +4167,7 @@
       </c>
       <c r="Q38" s="21">
         <f ca="1">TODAY()-I38</f>
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="R38" s="7">
         <f>P38/N38-1</f>
@@ -4182,7 +4217,7 @@
       </c>
       <c r="Q39" s="21">
         <f ca="1">TODAY()-I39</f>
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="R39" s="7">
         <f>P39/N39-1</f>
